--- a/testData/VehicleDetails.xlsx
+++ b/testData/VehicleDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Make</t>
   </si>
@@ -390,9 +390,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="25.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.5703125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
